--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitalijpozdnakov/Yandex.Disk.localized/Data Science/HSE/Courses/Master Thesis/probabilistic_forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A2BEF2-456E-6E44-9624-C0D3CC7905CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4FEF4D-F37E-DF42-8060-73F54A59EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DDCD02F4-2884-C247-9C80-C7E18EBDA4A7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" xr2:uid="{DDCD02F4-2884-C247-9C80-C7E18EBDA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>model</t>
   </si>
@@ -64,19 +64,40 @@
   </si>
   <si>
     <t>tcn wgan minmax</t>
+  </si>
+  <si>
+    <t>transformer maf diff</t>
+  </si>
+  <si>
+    <t>deepvar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,8 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1104669B-A3AF-514C-85F0-F96718B89117}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,6 +480,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>5.33E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -465,10 +491,10 @@
       <c r="B4">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
@@ -476,14 +502,8 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4.48E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.5111</v>
-      </c>
-      <c r="D5">
-        <v>7.6300000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -512,6 +532,34 @@
       </c>
       <c r="D7">
         <v>5.67E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>7.3800000000000004E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitalijpozdnakov/Yandex.Disk.localized/Data Science/HSE/Courses/Master Thesis/probabilistic_forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4FEF4D-F37E-DF42-8060-73F54A59EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8C4A8-E05B-584E-90B9-7317AC6004E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" xr2:uid="{DDCD02F4-2884-C247-9C80-C7E18EBDA4A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DDCD02F4-2884-C247-9C80-C7E18EBDA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>model</t>
   </si>
@@ -57,13 +57,7 @@
     <t>gaussian tcn minmax</t>
   </si>
   <si>
-    <t>gaussian tcn stationary</t>
-  </si>
-  <si>
     <t>tcn gan minmax</t>
-  </si>
-  <si>
-    <t>tcn wgan minmax</t>
   </si>
   <si>
     <t>transformer maf diff</t>
@@ -76,6 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -121,10 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1104669B-A3AF-514C-85F0-F96718B89117}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,10 +467,11 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>3.2899999999999999E-2</v>
       </c>
     </row>
@@ -480,21 +479,27 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>5.33E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="C4" s="2">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
@@ -503,62 +508,40 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>4.48E-2</v>
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1772</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.3200000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.1772</v>
-      </c>
-      <c r="D6">
-        <v>6.3200000000000006E-2</v>
+      <c r="B6" s="1">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0.2049</v>
-      </c>
-      <c r="C7">
-        <v>0.19420000000000001</v>
-      </c>
-      <c r="D7">
-        <v>5.67E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="D8">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="B7" s="1">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="C9">
+      <c r="C7" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D9">
+      <c r="D7" s="1">
         <v>7.3800000000000004E-2</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitalijpozdnakov/Yandex.Disk.localized/Data Science/HSE/Courses/Master Thesis/probabilistic_forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8C4A8-E05B-584E-90B9-7317AC6004E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634C279-DC3F-9A49-A61B-A6D25DDD8C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DDCD02F4-2884-C247-9C80-C7E18EBDA4A7}"/>
   </bookViews>
@@ -36,34 +36,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>quantile loss</t>
-  </si>
-  <si>
-    <t>corr loss</t>
-  </si>
-  <si>
-    <t>pacf loss</t>
-  </si>
-  <si>
     <t>train-test</t>
   </si>
   <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>gaussian tcn minmax</t>
-  </si>
-  <si>
-    <t>tcn gan minmax</t>
-  </si>
-  <si>
-    <t>transformer maf diff</t>
-  </si>
-  <si>
-    <t>deepvar</t>
+    <t>QL</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>Gaussian TCN</t>
+  </si>
+  <si>
+    <t>TCN cGAN</t>
+  </si>
+  <si>
+    <t>Transformer-RealNVP</t>
+  </si>
+  <si>
+    <t>VEC-LSTM</t>
+  </si>
+  <si>
+    <t>—</t>
   </si>
 </sst>
 </file>
@@ -73,21 +73,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,10 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -440,7 +431,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,9 +441,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -465,9 +453,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -477,9 +467,9 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
         <v>5.33E-2</v>
       </c>
       <c r="C3" s="1">
@@ -491,21 +481,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>5.4600000000000003E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>9.2899999999999996E-2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.2900000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>0.15559999999999999</v>
@@ -519,12 +509,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2E-3</v>
       </c>
       <c r="D6" s="1">
@@ -533,7 +523,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>7.3700000000000002E-2</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitalijpozdnakov/Yandex.Disk.localized/Data Science/HSE/Courses/Master Thesis/probabilistic_forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634C279-DC3F-9A49-A61B-A6D25DDD8C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14CA415-E8C8-544D-9BF2-C7F6A31F773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DDCD02F4-2884-C247-9C80-C7E18EBDA4A7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" xr2:uid="{DDCD02F4-2884-C247-9C80-C7E18EBDA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,13 +498,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.15559999999999999</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>0.1772</v>
+        <v>0.1459</v>
       </c>
       <c r="D5" s="1">
-        <v>6.3200000000000006E-2</v>
+        <v>6.13E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitalijpozdnakov/Yandex.Disk.localized/Data Science/HSE/Courses/Master Thesis/probabilistic_forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14CA415-E8C8-544D-9BF2-C7F6A31F773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48197DB0-2890-C54A-B8CF-B100EC6613F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" xr2:uid="{DDCD02F4-2884-C247-9C80-C7E18EBDA4A7}"/>
   </bookViews>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +83,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,10 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,7 +440,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,26 +479,26 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.33E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>1.8E-3</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>1.91</v>
+        <v>10.0281</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C4" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>4.4400000000000002E-2</v>
       </c>
     </row>
@@ -514,7 +523,7 @@
       <c r="B6" s="1">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2E-3</v>
       </c>
       <c r="D6" s="1">
